--- a/cucumberframework/InputExcelData/LeadPage.xlsx
+++ b/cucumberframework/InputExcelData/LeadPage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CucumberFramework-master\CucumberFramework-master\InputExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\TouchPointFramework\TouchPointFramework\cucumberframework\InputExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976DD7C9-1DFD-4ACB-8DBF-231C05DEB030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677D5D0-6390-4BB0-A9E6-B678EC056586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>Address</t>
   </si>
   <si>
-    <t>17250 Knoll Trail Dr</t>
-  </si>
-  <si>
     <t>kannan.k@geval6.com</t>
+  </si>
+  <si>
+    <t>14625 FLANDERS CT</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,13 +425,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>75248</v>
+        <v>75001</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
